--- a/DOC/Engenharia Software II/descricao de caso de uso.xlsx
+++ b/DOC/Engenharia Software II/descricao de caso de uso.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8415" xr2:uid="{35FA8BB6-F6EB-4A21-803F-1FFA0D7B92E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="criar trilho" sheetId="2" r:id="rId1"/>
+    <sheet name="Folha3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -25,28 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>descrição</t>
-  </si>
-  <si>
-    <t>pré-condição</t>
-  </si>
-  <si>
-    <t>caminho principal</t>
-  </si>
-  <si>
-    <t>caminhos alternativos</t>
-  </si>
-  <si>
-    <t>suplementos e adornos</t>
-  </si>
-  <si>
-    <t>pós-condição</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Criar trilho</t>
   </si>
@@ -54,67 +34,70 @@
     <t>Permite ao professor de educação fisica criar um trilho</t>
   </si>
   <si>
-    <t>O professor de educação física tem que estar logado com privilégios de edição</t>
-  </si>
-  <si>
-    <t>clicar no botão criar trilho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selecionar dificuldade</t>
-  </si>
-  <si>
-    <t>intruduzir duração média</t>
-  </si>
-  <si>
-    <t>intruduzir altitude máxima e mínima</t>
-  </si>
-  <si>
-    <t>intoduzir nome do trilho</t>
-  </si>
-  <si>
-    <t>introduzir uma descriçao do trilho</t>
-  </si>
-  <si>
-    <t>introduzir imagens do trilho</t>
-  </si>
-  <si>
-    <t>introduzir preço do trilho</t>
-  </si>
-  <si>
-    <t>introduzir material necessario</t>
-  </si>
-  <si>
-    <t>clicar no botão criar novo trilho</t>
-  </si>
-  <si>
-    <t>pode ser criado um trilho sem que todas as especificaçoes sejam preenchidas</t>
-  </si>
-  <si>
-    <t>selecionar numero de etapas</t>
-  </si>
-  <si>
-    <t>selecionar etapas pretendidas</t>
-  </si>
-  <si>
-    <t>verificar se utilizador selecionou as etapas pretendidas</t>
-  </si>
-  <si>
-    <t>verificar se utilizador selecionou o numero de etapas</t>
-  </si>
-  <si>
-    <t>verificar se utilizador introduziu o nome do trilho</t>
-  </si>
-  <si>
-    <t>verificar se utilizador introduziu a descriçao do trilho</t>
-  </si>
-  <si>
-    <t>verificar se utilizador introduziu o preço do trilho</t>
-  </si>
-  <si>
-    <t>Não pode haver trilhos com as mesmas etapas nem com o mesmo nome</t>
-  </si>
-  <si>
-    <t>o utilizador pode ser direcionado para uma nova página com as etapas existentes</t>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Pré-condição</t>
+  </si>
+  <si>
+    <t>Caminho Principal</t>
+  </si>
+  <si>
+    <t>Caminhos Alternativos</t>
+  </si>
+  <si>
+    <t>Suplementos e Adornos</t>
+  </si>
+  <si>
+    <t>Pós-condição</t>
+  </si>
+  <si>
+    <t>O professor de desporto tem que estar logado</t>
+  </si>
+  <si>
+    <t>O Professor realiza um pedido ao sistema para aceder a zona de criar trilho</t>
+  </si>
+  <si>
+    <t>O sistema devolve o formulario de criar trilhos ao professor</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma mensagem de confirmação da criação do trilho.</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma mensagem ao professor para preencher os campos brigatorios</t>
+  </si>
+  <si>
+    <t>verificar se o professor preencheu todos os campos obrigatorios do formulario</t>
+  </si>
+  <si>
+    <t>a descrição não pode exceder 1000 caracteres</t>
+  </si>
+  <si>
+    <t>calcular a dificuladade consoante a media de dificuldade das etapas</t>
+  </si>
+  <si>
+    <t>tem que haver no minimo uma etapa previamente criada</t>
+  </si>
+  <si>
+    <t>O professor preenche o formulario com os atributos do trilhoe clica no botão "criar trilho"</t>
+  </si>
+  <si>
+    <t>3 a)</t>
+  </si>
+  <si>
+    <t>trilho</t>
+  </si>
+  <si>
+    <t>tabelas</t>
+  </si>
+  <si>
+    <t>etapa</t>
+  </si>
+  <si>
+    <t>linha etapa</t>
   </si>
 </sst>
 </file>
@@ -151,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -163,21 +146,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -289,21 +257,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -365,86 +318,95 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,20 +720,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D5248-9D10-4CBE-B366-F69B6BF34CFE}">
-  <dimension ref="B1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4016D737-59E8-480D-AB50-D5686E45018B}">
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D34"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>2</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>3</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>4</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141A600C-2B1A-4B71-873B-6964870723EF}">
+  <dimension ref="B1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -781,271 +963,189 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>2</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>3</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>4</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
-        <v>2</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
-        <v>3</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
-        <v>4</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
-        <v>5</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="36"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
-        <v>6</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
-        <v>7</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
-        <v>8</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="36"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
-        <v>9</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="36"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
-        <v>10</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="36"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
-        <v>11</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="36"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
-        <v>12</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="38"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
-        <v>2</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="11">
-        <v>1</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
-        <v>2</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
-        <v>3</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
-        <v>4</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
-        <v>5</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
